--- a/examples/Abatement/Data/techdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/techdata_main_catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="inputdisp" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,8 +493,11 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
         <v>0.3</v>
@@ -510,8 +513,8 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0.3</v>
@@ -532,9 +535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/Abatement/Data/techdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/techdata_main_catalog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>unit_cost</t>
   </si>
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E2">
         <v>0.3</v>
@@ -506,7 +506,13 @@
         <v>0.03</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -523,7 +529,13 @@
         <v>0.01</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -536,8 +548,8 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,13 +616,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
         <v>0.02</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -627,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
         <v>0.01</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Abatement/Data/techdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/techdata_main_catalog.xlsx
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/Abatement/Data/techdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/techdata_main_catalog.xlsx
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/Abatement/Data/techdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/techdata_main_catalog.xlsx
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I11" sqref="I11"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/Abatement/Data/techdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/techdata_main_catalog.xlsx
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/Abatement/Data/techdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/techdata_main_catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inputdisp" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,22 +494,22 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F2">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -520,19 +520,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -547,9 +547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -616,13 +616,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>0.02</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Abatement/Data/techdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/techdata_main_catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="inputdisp" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C2">
         <v>0.6</v>
@@ -520,7 +520,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0.35</v>
@@ -547,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D22" sqref="D22"/>
     </sheetView>
